--- a/planilla de nafta segunda vercion.xlsx
+++ b/planilla de nafta segunda vercion.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo_\Desktop\Olivos_Combustibles_SRL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98B4E57-1006-4CAE-8C49-F5AFA598DDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B2CF8-7FB3-470A-95DF-E0A7B3B66AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB1C2D97-504C-48BE-B5B9-9C02689C24A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$D$53</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,9 +72,6 @@
     <t>Total Combustibles</t>
   </si>
   <si>
-    <t xml:space="preserve">OLIVOS COMBUSTIBLES S.R.L.                 DIA:                               PLAYEROS:                                                                                   TURNO:                   </t>
-  </si>
-  <si>
     <t>Total Tarjetas:</t>
   </si>
   <si>
@@ -79,13 +79,16 @@
   </si>
   <si>
     <t>Axion Card:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVOS COMBUSTIBLES S.R.L.                 DIA:                                            PLAYEROS:                                                                                                                                TURNO:                   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +98,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,7 +113,7 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -410,82 +420,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,387 +842,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B4BBBF-3B30-434A-A1B3-563B882D1789}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="4" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="19" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="19" t="s">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+    </row>
+    <row r="43" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+    </row>
+    <row r="45" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+    </row>
+    <row r="46" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="13" t="s">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+    </row>
+    <row r="51" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="1" t="s">
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="13" scale="39" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/planilla de nafta segunda vercion.xlsx
+++ b/planilla de nafta segunda vercion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo_\Desktop\Olivos_Combustibles_SRL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B2CF8-7FB3-470A-95DF-E0A7B3B66AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CEB145-D91F-48D3-A395-8B23E5A2B76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB1C2D97-504C-48BE-B5B9-9C02689C24A8}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +112,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -422,19 +437,13 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -444,89 +453,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,44 +863,44 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="71.42578125" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -898,326 +913,320 @@
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="2" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="2" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="29" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="30"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="1:4" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="33"/>
+      <c r="D53" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="A1:D1"/>
@@ -1230,8 +1239,14 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C43:D43"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="13" scale="39" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="13" scale="38" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/planilla de nafta segunda vercion.xlsx
+++ b/planilla de nafta segunda vercion.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo_\Desktop\Olivos_Combustibles_SRL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98B4E57-1006-4CAE-8C49-F5AFA598DDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB1C2D97-504C-48BE-B5B9-9C02689C24A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$D$53</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -84,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,57 +431,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -547,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -599,7 +599,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -793,61 +793,61 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B4BBBF-3B30-434A-A1B3-563B882D1789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="4" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -861,290 +861,290 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="5"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="5"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="5"/>
       <c r="B21" s="2"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="2"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="2"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="2"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="5"/>
       <c r="B25" s="2"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="5"/>
       <c r="B26" s="2"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="5"/>
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="5"/>
       <c r="B28" s="2"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="5"/>
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="5"/>
       <c r="B30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="5"/>
       <c r="B32" s="2"/>
       <c r="C32" s="5"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="5"/>
       <c r="B33" s="2"/>
       <c r="C33" s="5"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="5"/>
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1">
       <c r="A38" s="5"/>
       <c r="B38" s="2"/>
       <c r="C38" s="6"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1">
       <c r="A39" s="5"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="5"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="5"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="5"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="5"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="5"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1">
       <c r="A46" s="5"/>
       <c r="B46" s="2"/>
       <c r="C46" s="32"/>
       <c r="D46" s="33"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1">
       <c r="A47" s="5"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="5"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="5"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="5"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="32"/>
       <c r="D51" s="33"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1">
       <c r="A52" s="5"/>
       <c r="B52" s="2"/>
       <c r="C52" s="13" t="s">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1">
       <c r="A53" s="6"/>
       <c r="B53" s="9"/>
       <c r="C53" s="1" t="s">
@@ -1162,6 +1162,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="C5:D5"/>
@@ -1173,15 +1180,11 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/planilla de nafta segunda vercion.xlsx
+++ b/planilla de nafta segunda vercion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16608" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$D$53</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Entregas Efectivo</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Total Combustibles</t>
   </si>
   <si>
-    <t xml:space="preserve">OLIVOS COMBUSTIBLES S.R.L.                 DIA:                               PLAYEROS:                                                                                   TURNO:                   </t>
-  </si>
-  <si>
     <t>Total Tarjetas:</t>
   </si>
   <si>
@@ -76,13 +73,19 @@
   </si>
   <si>
     <t>Axion Card:</t>
+  </si>
+  <si>
+    <t>on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVOS COMBUSTIBLES S.R.L.                 DIA:                                     PLAYEROS:                                                                            TURNO:                   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -356,15 +375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -407,16 +417,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -432,15 +436,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,6 +449,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,29 +489,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,7 +807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -801,388 +815,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="4" max="4" width="46.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:11" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1"/>
+    <row r="3" spans="1:11" ht="15" thickBot="1">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A33" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="11" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A34" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A35" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
+      <c r="A36" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+    </row>
+    <row r="43" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="26"/>
+    </row>
+    <row r="46" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+    </row>
+    <row r="48" spans="1:4" ht="31.95" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+    </row>
+    <row r="50" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
+      <c r="A53" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="5"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A51" s="5"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A52" s="5"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="10"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+    </row>
+    <row r="55" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A55" s="14"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
+  <mergeCells count="17">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="4" max="1048575" man="1"/>
   </colBreaks>

--- a/planilla de nafta segunda vercion.xlsx
+++ b/planilla de nafta segunda vercion.xlsx
@@ -134,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -155,17 +155,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -320,19 +309,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -417,88 +393,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -807,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -817,51 +798,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="4" max="4" width="46.21875" customWidth="1"/>
+    <col min="1" max="1" width="45.21875" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1"/>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:11" ht="29.4" customHeight="1" thickBot="1">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1">
-      <c r="A4" s="9" t="s">
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" ht="30.6" customHeight="1" thickBot="1">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="31.95" customHeight="1">
       <c r="A5" s="6"/>
@@ -904,9 +885,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="31.95" customHeight="1">
       <c r="A12" s="3"/>
@@ -1035,7 +1016,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="31.95" customHeight="1">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1"/>
@@ -1043,7 +1024,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="31.95" customHeight="1">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1"/>
@@ -1051,7 +1032,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="31.95" customHeight="1">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="1"/>
@@ -1059,7 +1040,7 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1"/>
@@ -1069,16 +1050,16 @@
     <row r="37" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
       <c r="A37" s="3"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" ht="31.95" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="31.95" customHeight="1">
       <c r="A39" s="3"/>
@@ -1119,16 +1100,16 @@
     <row r="45" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="31.95" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" ht="31.95" customHeight="1">
       <c r="A47" s="3"/>
@@ -1151,48 +1132,41 @@
     <row r="50" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="25.05" customHeight="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
+  <mergeCells count="19">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -1203,6 +1177,15 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>

--- a/planilla de nafta segunda vercion.xlsx
+++ b/planilla de nafta segunda vercion.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$D$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$D$54</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,6 +417,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,67 +481,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -788,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -799,7 +807,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.77734375" defaultRowHeight="14.4"/>
@@ -810,7 +818,7 @@
     <col min="4" max="4" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="40.200000000000003" customHeight="1" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
@@ -820,26 +828,26 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1"/>
     <row r="3" spans="1:11" ht="29.4" customHeight="1" thickBot="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="10"/>
@@ -885,9 +893,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="31.95" customHeight="1">
       <c r="A12" s="3"/>
@@ -1050,16 +1058,16 @@
     <row r="37" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
       <c r="A37" s="3"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:4" ht="31.95" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="31.95" customHeight="1">
       <c r="A39" s="3"/>
@@ -1100,16 +1108,16 @@
     <row r="45" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" ht="31.95" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="31.95" customHeight="1">
       <c r="A47" s="3"/>
@@ -1132,7 +1140,7 @@
     <row r="50" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="9"/>
@@ -1140,33 +1148,41 @@
     <row r="51" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A53" s="25" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+    </row>
+    <row r="53" spans="1:4" ht="41.4" customHeight="1" thickBot="1">
+      <c r="A53" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
     </row>
     <row r="55" spans="1:4" ht="25.05" customHeight="1">
       <c r="A55" s="11"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -1178,14 +1194,6 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>

--- a/planilla de nafta segunda vercion.xlsx
+++ b/planilla de nafta segunda vercion.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo_\Desktop\Olivos_Combustibles_SRL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF5DC1-E146-4DF2-B63A-D8D915E41C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB1C2D97-504C-48BE-B5B9-9C02689C24A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$D$60</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -78,9 +72,6 @@
     <t>Axion Card:</t>
   </si>
   <si>
-    <t xml:space="preserve">OLIVOS COMBUSTIBLES S.R.L.                 DIA:                                            PLAYEROS:                                                                                                                                TURNO:                   </t>
-  </si>
-  <si>
     <t>Total Tarjetas (lote 2):</t>
   </si>
   <si>
@@ -88,13 +79,16 @@
   </si>
   <si>
     <t>on axion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVOS COMBUSTIBLES S.R.L.                                        DIA:                                            PLAYEROS:                                                                                                  TURNO:                   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +535,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -551,18 +567,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,26 +584,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -662,7 +656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -714,7 +708,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -908,24 +902,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B4BBBF-3B30-434A-A1B3-563B882D1789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
@@ -933,45 +927,45 @@
     <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30.95" customHeight="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:11" ht="30.95" customHeight="1" thickBot="1">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -985,188 +979,188 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="27" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="27" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="27" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="27" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="27" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="27" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="27" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="27" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="27" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="27" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="27" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="27" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="27" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="27" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="27" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="27" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="27" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="27" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="27" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="27" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="27" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="27" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="27" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="27" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>11</v>
       </c>
@@ -1174,7 +1168,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="27" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>12</v>
       </c>
@@ -1182,139 +1176,139 @@
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="27" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="9"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="27" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="17"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="27" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="27" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="27" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="27" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="27" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="27" customHeight="1" thickBot="1">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="12"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="27" customHeight="1" thickBot="1">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="25"/>
-    </row>
-    <row r="47" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="38"/>
+    </row>
+    <row r="47" spans="1:4" ht="27" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-    </row>
-    <row r="48" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+    </row>
+    <row r="48" spans="1:4" ht="27" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+    </row>
+    <row r="49" spans="1:4" ht="27" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+    </row>
+    <row r="50" spans="1:4" ht="27" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+    </row>
+    <row r="51" spans="1:4" ht="27" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="1:4" ht="27" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-    </row>
-    <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="1:4" ht="24.95" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-    </row>
-    <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="39"/>
+      <c r="D55" s="40"/>
+    </row>
+    <row r="56" spans="1:4" ht="24.95" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="57" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+    </row>
+    <row r="57" spans="1:4" ht="24.95" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+    </row>
+    <row r="58" spans="1:4" ht="24.95" customHeight="1" thickBot="1">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+    </row>
+    <row r="59" spans="1:4" ht="24.95" customHeight="1" thickBot="1">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="18" t="s">
@@ -1322,7 +1316,7 @@
       </c>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" ht="24.95" customHeight="1" thickBot="1">
       <c r="A60" s="12"/>
       <c r="B60" s="15"/>
       <c r="C60" s="19" t="s">
@@ -1332,11 +1326,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
@@ -1350,6 +1339,11 @@
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="13" scale="37" orientation="portrait" r:id="rId1"/>
